--- a/inst/extdata/team_colors.xlsx
+++ b/inst/extdata/team_colors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylorizing/Library/Mobile Documents/com~apple~CloudDocs/Work/r_projects/ThemeSwitcher/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/Frameworks/R.framework/Versions/3.6/Resources/library/nhlthemes/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C52B41-9462-B341-BAF8-85FC8B284721}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F0773A-E7F4-E84E-9BB9-97BA6C5D089A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="460" windowWidth="33880" windowHeight="17600" xr2:uid="{3EC35B8C-B2BB-0645-8739-F8589CAB28CC}"/>
+    <workbookView xWindow="13840" yWindow="460" windowWidth="33880" windowHeight="17600" xr2:uid="{3EC35B8C-B2BB-0645-8739-F8589CAB28CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,99 +66,6 @@
     <t>team</t>
   </si>
   <si>
-    <t>Anaheim Ducks</t>
-  </si>
-  <si>
-    <t>Boston Bruins</t>
-  </si>
-  <si>
-    <t>Buffalo Sabres</t>
-  </si>
-  <si>
-    <t>Calgary Flames</t>
-  </si>
-  <si>
-    <t>Carolina Hurricanes</t>
-  </si>
-  <si>
-    <t>Chicago Blackhawks</t>
-  </si>
-  <si>
-    <t>Colorado Avalanche</t>
-  </si>
-  <si>
-    <t>Columbus Blue Jackets</t>
-  </si>
-  <si>
-    <t>Dallas Stars</t>
-  </si>
-  <si>
-    <t>Detroit Red Wings</t>
-  </si>
-  <si>
-    <t>Edmonton Oilers</t>
-  </si>
-  <si>
-    <t>Florida Panthers</t>
-  </si>
-  <si>
-    <t>Los Angeles Kings</t>
-  </si>
-  <si>
-    <t>Minnesota Wild</t>
-  </si>
-  <si>
-    <t>Montreal Canadiens</t>
-  </si>
-  <si>
-    <t>Nashville Predators</t>
-  </si>
-  <si>
-    <t>New Jersey Devils</t>
-  </si>
-  <si>
-    <t>New York Islanders</t>
-  </si>
-  <si>
-    <t>New York Rangers</t>
-  </si>
-  <si>
-    <t>Ottawa Senators</t>
-  </si>
-  <si>
-    <t>Philadelphia Flyers</t>
-  </si>
-  <si>
-    <t>Pittsburgh Penguins</t>
-  </si>
-  <si>
-    <t>St. Louis Blues</t>
-  </si>
-  <si>
-    <t>San Jose Sharks</t>
-  </si>
-  <si>
-    <t>Tampa Bay Lightning</t>
-  </si>
-  <si>
-    <t>Toronto Maple Leafs</t>
-  </si>
-  <si>
-    <t>Vancouver Canucks</t>
-  </si>
-  <si>
-    <t>Vegas Golden Knights</t>
-  </si>
-  <si>
-    <t>Washington Capitals</t>
-  </si>
-  <si>
-    <t>Arizona Coyotes</t>
-  </si>
-  <si>
-    <t>Winnipeg Jets</t>
-  </si>
-  <si>
     <t>color1</t>
   </si>
   <si>
@@ -388,6 +295,99 @@
   </si>
   <si>
     <t>color8</t>
+  </si>
+  <si>
+    <t>ducks</t>
+  </si>
+  <si>
+    <t>coyotes</t>
+  </si>
+  <si>
+    <t>bruins</t>
+  </si>
+  <si>
+    <t>sabres</t>
+  </si>
+  <si>
+    <t>flames</t>
+  </si>
+  <si>
+    <t>hurricanes</t>
+  </si>
+  <si>
+    <t>blackhawks</t>
+  </si>
+  <si>
+    <t>avalanche</t>
+  </si>
+  <si>
+    <t>jackets</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>wings</t>
+  </si>
+  <si>
+    <t>oilers</t>
+  </si>
+  <si>
+    <t>panthers</t>
+  </si>
+  <si>
+    <t>kings</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>canadiens</t>
+  </si>
+  <si>
+    <t>predators</t>
+  </si>
+  <si>
+    <t>devils</t>
+  </si>
+  <si>
+    <t>islanders</t>
+  </si>
+  <si>
+    <t>rangers</t>
+  </si>
+  <si>
+    <t>senators</t>
+  </si>
+  <si>
+    <t>flyers</t>
+  </si>
+  <si>
+    <t>penguins</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>sharks</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>leafs</t>
+  </si>
+  <si>
+    <t>canucks</t>
+  </si>
+  <si>
+    <t>knights</t>
+  </si>
+  <si>
+    <t>capitals</t>
+  </si>
+  <si>
+    <t>jets</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1405,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1449,33 +1449,33 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B2" s="15" t="str">
         <f>L2</f>
@@ -1518,21 +1518,21 @@
         <v>#FC4C02</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="B3" s="17" t="str">
         <f t="shared" ref="B3:B32" si="0">L3</f>
@@ -1575,13 +1575,13 @@
         <v>#89222F</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="4" spans="1:19" ht="17">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="B4" s="19" t="str">
         <f t="shared" si="0"/>
@@ -1632,10 +1632,10 @@
         <v>#FDB927</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B5" s="21" t="str">
         <f t="shared" si="0"/>
@@ -1686,19 +1686,19 @@
         <v>#002D62</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:19" ht="17">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -1741,19 +1741,19 @@
         <v>#D42604</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:19" ht="17">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B7" s="28" t="str">
         <f t="shared" si="0"/>
@@ -1796,19 +1796,19 @@
         <v>#E13A3E</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="M7" s="41" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N7" s="42" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="B8" s="123" t="str">
         <f t="shared" ref="B8" si="10">L8</f>
@@ -1851,33 +1851,33 @@
         <v>#CF0A2C</v>
       </c>
       <c r="L8" s="117" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="M8" s="118" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="N8" s="119" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="O8" s="120" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="P8" s="121" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="122" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="S8" s="50" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B9" s="30" t="str">
         <f t="shared" si="0"/>
@@ -1920,21 +1920,21 @@
         <v>#8B2942</v>
       </c>
       <c r="L9" s="43" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="N9" s="53" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="17">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="B10" s="32" t="str">
         <f t="shared" si="0"/>
@@ -1977,19 +1977,19 @@
         <v>#01265B</v>
       </c>
       <c r="L10" s="45" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="M10" s="46" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="N10" s="54" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:19" ht="17">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="B11" s="34" t="str">
         <f t="shared" si="0"/>
@@ -2032,19 +2032,19 @@
         <v>#006341</v>
       </c>
       <c r="L11" s="47" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M11" s="48" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="N11" s="55" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:19" ht="17">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="B12" s="36" t="str">
         <f t="shared" si="0"/>
@@ -2087,16 +2087,16 @@
         <v>#C8102E</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M12" s="50" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:19" ht="17">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B13" s="38" t="str">
         <f t="shared" si="0"/>
@@ -2139,16 +2139,16 @@
         <v>#00205B</v>
       </c>
       <c r="L13" s="51" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="M13" s="52" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B14" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2191,18 +2191,18 @@
         <v>#CF4520</v>
       </c>
       <c r="L14" s="52" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="M14" s="49" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="N14" s="56" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B15" s="90" t="str">
         <f t="shared" si="0"/>
@@ -2245,15 +2245,15 @@
         <v>#B1B5B6</v>
       </c>
       <c r="L15" s="57" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B16" s="91" t="str">
         <f t="shared" si="0"/>
@@ -2296,21 +2296,21 @@
         <v>#015836</v>
       </c>
       <c r="L16" s="58" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="M16" s="59" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="N16" s="84" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="O16" s="85" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="B17" s="93" t="str">
         <f t="shared" si="0"/>
@@ -2353,15 +2353,15 @@
         <v>#001E62</v>
       </c>
       <c r="L17" s="60" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B18" s="95" t="str">
         <f t="shared" si="0"/>
@@ -2404,15 +2404,15 @@
         <v>#083763</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="M18" s="63" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="B19" s="36" t="str">
         <f t="shared" si="0"/>
@@ -2455,15 +2455,15 @@
         <v>#C8102E</v>
       </c>
       <c r="L19" s="49" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="B20" s="97" t="str">
         <f t="shared" si="0"/>
@@ -2506,15 +2506,15 @@
         <v>#003087</v>
       </c>
       <c r="L20" s="64" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B21" s="98" t="str">
         <f t="shared" si="0"/>
@@ -2557,15 +2557,15 @@
         <v>#0039A6</v>
       </c>
       <c r="L21" s="65" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="M21" s="66" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="B22" s="100" t="str">
         <f t="shared" si="0"/>
@@ -2608,18 +2608,18 @@
         <v>#E4173E</v>
       </c>
       <c r="L22" s="67" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="M22" s="68" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B23" s="102" t="str">
         <f t="shared" si="0"/>
@@ -2662,15 +2662,15 @@
         <v>#FD4300</v>
       </c>
       <c r="L23" s="69" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B24" s="103" t="str">
         <f t="shared" si="0"/>
@@ -2713,15 +2713,15 @@
         <v>#FFC80C</v>
       </c>
       <c r="L24" s="70" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="M24" s="71" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="B25" s="105" t="str">
         <f t="shared" si="0"/>
@@ -2764,15 +2764,15 @@
         <v>#0447A0</v>
       </c>
       <c r="L25" s="72" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="M25" s="73" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="B26" s="107" t="str">
         <f t="shared" si="0"/>
@@ -2815,18 +2815,18 @@
         <v>#006E7F</v>
       </c>
       <c r="L26" s="74" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="N26" s="86" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="B27" s="108" t="str">
         <f t="shared" si="0"/>
@@ -2869,15 +2869,15 @@
         <v>#003E7E</v>
       </c>
       <c r="L27" s="75" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="M27" s="50" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="B28" s="109" t="str">
         <f t="shared" si="0"/>
@@ -2920,15 +2920,15 @@
         <v>#003876</v>
       </c>
       <c r="L28" s="76" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B29" s="110" t="str">
         <f t="shared" si="0"/>
@@ -2971,18 +2971,18 @@
         <v>#002E56</v>
       </c>
       <c r="L29" s="77" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="M29" s="75" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="N29" s="87" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="B30" s="111" t="str">
         <f t="shared" si="0"/>
@@ -3025,18 +3025,18 @@
         <v>#87704E</v>
       </c>
       <c r="L30" s="78" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="M30" s="79" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="N30" s="88" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="B31" s="113" t="str">
         <f t="shared" si="0"/>
@@ -3079,15 +3079,15 @@
         <v>#00214D</v>
       </c>
       <c r="L31" s="80" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="M31" s="81" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="B32" s="115" t="str">
         <f t="shared" si="0"/>
@@ -3130,13 +3130,13 @@
         <v>#002E62</v>
       </c>
       <c r="L32" s="82" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="M32" s="83" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="N32" s="89" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
